--- a/biology/Botanique/Grubbiaceae/Grubbiaceae.xlsx
+++ b/biology/Botanique/Grubbiaceae/Grubbiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Grubbiacées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend cinq espèces réparties en un à deux genres.
 Ce sont des arbustes xérophytes des régions arides d'Afrique australe.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Grubbia, donné en l’honneur du botaniste suédois Michael Grubb (1728–1808), qui étudia la flore d’Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Grubbia, donné en l’honneur du botaniste suédois Michael Grubb (1728–1808), qui étudia la flore d’Afrique du Sud.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] la situe dans l'ordre des Cornales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) la situe dans l'ordre des Cornales.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[3] et NCBI  (12 nov. 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 genre Grubbia Bergius
-Selon DELTA Angio           (12 nov. 2015)[5] :
+Selon DELTA Angio           (12 nov. 2015) :
 Grubbia (en)
 Strobilocarpus (es)</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 juin 2010) :
 genre Grubbia
 Grubbia rosmarinifolia
 Grubbia tomentosa</t>
